--- a/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1020,7 +1020,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1469,7 +1469,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1020,7 +1020,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1469,7 +1469,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>17158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12498</v>
+        <v>12945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20182</v>
+        <v>20152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.809949802300415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5899589005574822</v>
+        <v>0.6110717100373982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9526806782766308</v>
+        <v>0.9512710156930215</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>4026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8686</v>
+        <v>8239</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.190050197699585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04731932172336922</v>
+        <v>0.04872898430697847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4100410994425176</v>
+        <v>0.3889282899626017</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>123143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116985</v>
+        <v>116737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127069</v>
+        <v>126952</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.954256914644056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9065394202461149</v>
+        <v>0.9046150460955091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9846768481106936</v>
+        <v>0.9837759158974856</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>5903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1977</v>
+        <v>2094</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12061</v>
+        <v>12309</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04574308535594401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0153231518893064</v>
+        <v>0.01622408410251438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09346057975388508</v>
+        <v>0.09538495390449113</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>52815</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46187</v>
+        <v>45709</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56914</v>
+        <v>56948</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8665474861644759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7577906553553809</v>
+        <v>0.7499516141368602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9337925234381732</v>
+        <v>0.9343595670668012</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>8134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4035</v>
+        <v>4001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14762</v>
+        <v>15240</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1334525138355242</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06620747656182673</v>
+        <v>0.06564043293319879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.242209344644619</v>
+        <v>0.25004838586314</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>193115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9144670599223602</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>18063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11015</v>
+        <v>11165</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27093</v>
+        <v>27246</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08553294007763979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05216143688963878</v>
+        <v>0.0528698738353136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1282940237792254</v>
+        <v>0.129017568104775</v>
       </c>
     </row>
     <row r="15">
@@ -1179,19 +1179,19 @@
         <v>152267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146363</v>
+        <v>146508</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>155164</v>
+        <v>155204</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9748748535337535</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9370765181432449</v>
+        <v>0.9380034287990217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9934268313232461</v>
+        <v>0.9936823808698974</v>
       </c>
     </row>
     <row r="8">
@@ -1208,19 +1208,19 @@
         <v>3924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1027</v>
+        <v>987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9828</v>
+        <v>9683</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02512514646624653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006573168676753902</v>
+        <v>0.006317619130102648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06292348185675488</v>
+        <v>0.06199657120097835</v>
       </c>
     </row>
     <row r="9">
@@ -1345,19 +1345,19 @@
         <v>221064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9825576696208269</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
     </row>
     <row r="14">
@@ -1374,19 +1374,19 @@
         <v>3924</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9912</v>
+        <v>9999</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01744233037917304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004541656458481174</v>
+        <v>0.004396352288719373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04405352573317721</v>
+        <v>0.04444156029100683</v>
       </c>
     </row>
     <row r="15">
@@ -1553,7 +1553,7 @@
         <v>11345</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8638</v>
+        <v>8694</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>12168</v>
@@ -1562,7 +1562,7 @@
         <v>0.9323529080399879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7098976105348098</v>
+        <v>0.7144694092738192</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3530</v>
+        <v>3474</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0676470919600121</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2901023894651905</v>
+        <v>0.2855305907261806</v>
       </c>
     </row>
     <row r="6">
@@ -1644,7 +1644,7 @@
         <v>100742</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96472</v>
+        <v>96742</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>102491</v>
@@ -1653,7 +1653,7 @@
         <v>0.9829348417678079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9412759731927746</v>
+        <v>0.9439039762260778</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6019</v>
+        <v>5749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0170651582321921</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05872402680722549</v>
+        <v>0.05609602377392294</v>
       </c>
     </row>
     <row r="9">
@@ -1735,19 +1735,19 @@
         <v>28192</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23260</v>
+        <v>23414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30977</v>
+        <v>30877</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8817210578105222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7274690357935585</v>
+        <v>0.7322918968061045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9688097647041288</v>
+        <v>0.965675820683529</v>
       </c>
     </row>
     <row r="11">
@@ -1764,19 +1764,19 @@
         <v>3782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>997</v>
+        <v>1097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8714</v>
+        <v>8560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1182789421894777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03119023529587115</v>
+        <v>0.03432417931647101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2725309642064415</v>
+        <v>0.2677081031938956</v>
       </c>
     </row>
     <row r="12">
@@ -1826,19 +1826,19 @@
         <v>140279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9566675311262756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="14">
@@ -1855,19 +1855,19 @@
         <v>6354</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2651</v>
+        <v>2731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12067</v>
+        <v>12838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04333246887372447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01808194512684678</v>
+        <v>0.01862209815638373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08229133422637454</v>
+        <v>0.08755474168948214</v>
       </c>
     </row>
     <row r="15">
